--- a/data/hotels_by_city/Dallas/Dallas_shard_596.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_596.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,390 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r576036437-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>56528</t>
+  </si>
+  <si>
+    <t>106461</t>
+  </si>
+  <si>
+    <t>576036437</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Good service and location</t>
+  </si>
+  <si>
+    <t>The rooms were clean. Restaurants are nearby within 1 mile including grocery stores. For the money it was a great value. Usually hotels are sold out around the Dallas area to early for me at times considering I don't get done working and know where I'm staying till late afternoon. Oh, there are no pest problems!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r553581364-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>553581364</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>newly renovated</t>
+  </si>
+  <si>
+    <t>Had a great stay. Affordable rate. excellent staff. I do recommend. Location is very visible from highway I35. Pizza Inn, gas staion, food, beer shop in walking distance. I will stay here again if travelling this area.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r485910318-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>485910318</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Relaxing at Motel 6</t>
+  </si>
+  <si>
+    <t>Motel 6 Red Oak. Experience here overall is Good . Henry is the front desk manager great attitude most of the workers I have met All or very helpful.  Rooms are some what up too Part only experience I had was the Tub wasn't what I would have expected .The problem was taken care of. With a helpful attitude I really like staying here . some motel 6 are better then other The Beds here are Good . I would like too see better Bedspread .overall the Stay is Great Thank You motel 6 for keeping the light on l</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r475648912-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>475648912</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>I had a wonderful stay. Very nice staff and the maintenance guy was amazing. Thanks so much for all the help. I wish all motel service was as good as yours.  A plus was having a restaurant right next door. Pizza and sandwiches. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Dallas - Red Oak, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>I had a wonderful stay. Very nice staff and the maintenance guy was amazing. Thanks so much for all the help. I wish all motel service was as good as yours.  A plus was having a restaurant right next door. Pizza and sandwiches. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r465685326-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>465685326</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Need to be closed  down.</t>
+  </si>
+  <si>
+    <t>I booked online tried to double charge.went to room bed had stains on all linens.shower had hair,fort all over the floor,feces on floor,went and ask for clean sheets.they didn't  want to give.run from this price you want regret,health  board needs to pay them a visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Dallas - Red Oak, responded to this reviewResponded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>I booked online tried to double charge.went to room bed had stains on all linens.shower had hair,fort all over the floor,feces on floor,went and ask for clean sheets.they didn't  want to give.run from this price you want regret,health  board needs to pay them a visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r418470747-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>418470747</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Needs repair</t>
+  </si>
+  <si>
+    <t>Phone dead, bathroom door delaminating, dead bolt not working, door chain brokenWalls need work, patching poor, kinda dirty. Even by Motel 6 standards - pretty badTv good, hot water was plentiful, mattress comfortableThe security - lack of - is troubling</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r318808523-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>318808523</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>This is what motel 6 should be getting away from</t>
+  </si>
+  <si>
+    <t>This place is the classic motel 6 that everyone has had horrid memories of in the past. The bedding felt like it hadn't been cleaned, (it appeared ok, it just felt wrong), the room smelled like the same room would be called a no smoking room or a smoking room , depending simply what the customer asked for. After about 3 hours there water started running through the bathroom ceiling and chunks started falling off. The evening guy was there by then, at least he gave me a different room. The wifi is pathetic, only one router can connect and that one will only work from the front office, when I brought my laptop to the office to show the day clerk , he took my laptop and started tapping out stuff. I don't think he really knew what he was doing, and then when the signal was so weak it wouldn't connect he had the audacity to still try the "it must be your computer" stuffanyway like the raven says "nevermore"MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Dallas - Red Oak, responded to this reviewResponded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2015</t>
+  </si>
+  <si>
+    <t>This place is the classic motel 6 that everyone has had horrid memories of in the past. The bedding felt like it hadn't been cleaned, (it appeared ok, it just felt wrong), the room smelled like the same room would be called a no smoking room or a smoking room , depending simply what the customer asked for. After about 3 hours there water started running through the bathroom ceiling and chunks started falling off. The evening guy was there by then, at least he gave me a different room. The wifi is pathetic, only one router can connect and that one will only work from the front office, when I brought my laptop to the office to show the day clerk , he took my laptop and started tapping out stuff. I don't think he really knew what he was doing, and then when the signal was so weak it wouldn't connect he had the audacity to still try the "it must be your computer" stuffanyway like the raven says "nevermore"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r310792604-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>310792604</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Absolutely awful!</t>
+  </si>
+  <si>
+    <t>As soon as I entered the room I was repulsed by the horrible smell, cigarette burns on the comforter, the towels and washcloths were stained, if I could give this place a 0 score, I would, I do not recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Dallas - Red Oak, responded to this reviewResponded September 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2015</t>
+  </si>
+  <si>
+    <t>As soon as I entered the room I was repulsed by the horrible smell, cigarette burns on the comforter, the towels and washcloths were stained, if I could give this place a 0 score, I would, I do not recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r293746786-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>293746786</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Very Good.</t>
+  </si>
+  <si>
+    <t>While searching for a place to live in the area, I stayed a couple weeks.I had a single room with kingsize bed. The staff was always helpful and pleasant. I especially liked the fact that I dont see alot druggies here and I feel safe. I dont hear people in and out all hours of the night and my dogs are welcome.  Hard to believe the previous reviews having stayed here myself. Seem like good people.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r289865002-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>289865002</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>Great rates, great motel</t>
+  </si>
+  <si>
+    <t>Check in was quick, simple and easy. Management was very friendly, and the rooms smelled fantastic, and were very clean. Refrigerator and microwave in each room, plus within walking distance of a few eateries as well as convenience stores. Will for sure stay again.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r288327856-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>288327856</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Harry was upfront and honest.</t>
+  </si>
+  <si>
+    <t>We showed up at 8 or 9am on a Friday morning and Harry got us a room without marking it up. He had only double beds available but only charged the single room rate and no additional charge for being there earlier then normal check in. The initial room we got had no tv, so he promptly got us another. The TV in room two had static, but the ac wad cold, the water was hot and the bed comfy. It's next to a truck stop, try the fried pies there good. Also pizza joint in the truck stop, so it's convenient but no beer sold there. We would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We showed up at 8 or 9am on a Friday morning and Harry got us a room without marking it up. He had only double beds available but only charged the single room rate and no additional charge for being there earlier then normal check in. The initial room we got had no tv, so he promptly got us another. The TV in room two had static, but the ac wad cold, the water was hot and the bed comfy. It's next to a truck stop, try the fried pies there good. Also pizza joint in the truck stop, so it's convenient but no beer sold there. We would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r282287512-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>282287512</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>great rate will stay again</t>
+  </si>
+  <si>
+    <t>everything was very nice and clean, good customer service, great location only wifi is not strong enough. Will be stay again and would definitely recommend this hotel!!! enjoyed everything about our stay.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r266730213-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>266730213</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Hotel from hell!</t>
+  </si>
+  <si>
+    <t>This was simply the worst hotel experience in my life. I stood in the lobby for almost 3 hours trying to get a room thru my company approval, all because of the front desk personnel failure to inform them that his fax machine isn't working. Well sir why do you have a fax number on file. I finally get to my room &amp; bed #2 appeared to have someone else DNA on it. I repeat, do not stay here, you get what you pay for, so please go somewhere else or lay in someone else's DNA!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Red Oak, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>This was simply the worst hotel experience in my life. I stood in the lobby for almost 3 hours trying to get a room thru my company approval, all because of the front desk personnel failure to inform them that his fax machine isn't working. Well sir why do you have a fax number on file. I finally get to my room &amp; bed #2 appeared to have someone else DNA on it. I repeat, do not stay here, you get what you pay for, so please go somewhere else or lay in someone else's DNA!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r265917256-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>265917256</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Worst hotel experience</t>
+  </si>
+  <si>
+    <t>I chose the hotel because the website stated it was remodeled or renovated. I traveled with my toddler and sister to attend a funeral in Dallas. Unfortunately, I arrived late because of rush hour traffic and it rained badly. This was the worst hotel experience I ever had. The room checked-in was hot because the A/C was off.  The tub was dirty.  I tried calling front desk but the phone didn't work so I had to walk back to front desk to report my complaints. He gave me another room but bathtub was in the same condition as the first room and it was also hot. The vents on the A/C were broken. This time I was able to call front desk (phone worked) to complain. The front desk clerk came to the room to see my concerns.  He apologize for the inconvenience and said house keeping tries to clean the room quickly so guest will have an available room.  I showed him the dirty tub and he touched it and told me it was clean, despite a white thin layer of stuff was on his finger (looked like dust and soap scum).  I vented to him that I was tired, I had a long day driving over 4 hours to get there, and  I just wanted to take a hot shower and relax before I attend a funeral in the morning. He then gave me another room to stay...I chose the hotel because the website stated it was remodeled or renovated. I traveled with my toddler and sister to attend a funeral in Dallas. Unfortunately, I arrived late because of rush hour traffic and it rained badly. This was the worst hotel experience I ever had. The room checked-in was hot because the A/C was off.  The tub was dirty.  I tried calling front desk but the phone didn't work so I had to walk back to front desk to report my complaints. He gave me another room but bathtub was in the same condition as the first room and it was also hot. The vents on the A/C were broken. This time I was able to call front desk (phone worked) to complain. The front desk clerk came to the room to see my concerns.  He apologize for the inconvenience and said house keeping tries to clean the room quickly so guest will have an available room.  I showed him the dirty tub and he touched it and told me it was clean, despite a white thin layer of stuff was on his finger (looked like dust and soap scum).  I vented to him that I was tired, I had a long day driving over 4 hours to get there, and  I just wanted to take a hot shower and relax before I attend a funeral in the morning. He then gave me another room to stay in and the tub was almost in the same condition.  At this point I was too tired to complain so I decided to keep the room.  I went to the gas station next door and bought Ajax and Wet Ones to clean the bathroom.  The tub looked better but still had a dingy look but I felt at ease because I knew it was actually clean.  This hotel is NOT what I considered renovated, all they did is bought cheap bedding and paint the walls. The bathtubs are old and dingy. I also saw cracks on the floor tiles.  I've stayed at a Motel 6 before that was pleasant enough to consider booking a room but surely not this one ever again!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Red Oak, responded to this reviewResponded April 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2015</t>
+  </si>
+  <si>
+    <t>I chose the hotel because the website stated it was remodeled or renovated. I traveled with my toddler and sister to attend a funeral in Dallas. Unfortunately, I arrived late because of rush hour traffic and it rained badly. This was the worst hotel experience I ever had. The room checked-in was hot because the A/C was off.  The tub was dirty.  I tried calling front desk but the phone didn't work so I had to walk back to front desk to report my complaints. He gave me another room but bathtub was in the same condition as the first room and it was also hot. The vents on the A/C were broken. This time I was able to call front desk (phone worked) to complain. The front desk clerk came to the room to see my concerns.  He apologize for the inconvenience and said house keeping tries to clean the room quickly so guest will have an available room.  I showed him the dirty tub and he touched it and told me it was clean, despite a white thin layer of stuff was on his finger (looked like dust and soap scum).  I vented to him that I was tired, I had a long day driving over 4 hours to get there, and  I just wanted to take a hot shower and relax before I attend a funeral in the morning. He then gave me another room to stay...I chose the hotel because the website stated it was remodeled or renovated. I traveled with my toddler and sister to attend a funeral in Dallas. Unfortunately, I arrived late because of rush hour traffic and it rained badly. This was the worst hotel experience I ever had. The room checked-in was hot because the A/C was off.  The tub was dirty.  I tried calling front desk but the phone didn't work so I had to walk back to front desk to report my complaints. He gave me another room but bathtub was in the same condition as the first room and it was also hot. The vents on the A/C were broken. This time I was able to call front desk (phone worked) to complain. The front desk clerk came to the room to see my concerns.  He apologize for the inconvenience and said house keeping tries to clean the room quickly so guest will have an available room.  I showed him the dirty tub and he touched it and told me it was clean, despite a white thin layer of stuff was on his finger (looked like dust and soap scum).  I vented to him that I was tired, I had a long day driving over 4 hours to get there, and  I just wanted to take a hot shower and relax before I attend a funeral in the morning. He then gave me another room to stay in and the tub was almost in the same condition.  At this point I was too tired to complain so I decided to keep the room.  I went to the gas station next door and bought Ajax and Wet Ones to clean the bathroom.  The tub looked better but still had a dingy look but I felt at ease because I knew it was actually clean.  This hotel is NOT what I considered renovated, all they did is bought cheap bedding and paint the walls. The bathtubs are old and dingy. I also saw cracks on the floor tiles.  I've stayed at a Motel 6 before that was pleasant enough to consider booking a room but surely not this one ever again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r264648656-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>264648656</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>Terrible, Horrible, Gross...</t>
+  </si>
+  <si>
+    <t>We were in town for only one night to attend a family memeber's funeral. Our expectations were not high, but I expected a little more than we got. 
+Right when we walked in it smelled like an ashtray. The room just felt dirty. Then the covers on both beds were stained with, the lord only knows what. So we took those off. I was not going to let my kids near them. The sheets all had a smell to them, I'm sure they were not clean. Horrible pillows, thankfully we had our own pillows and a few small blankets. 
+The curtains were broken and could not slide closed all the way. I had to find a way to make it hook over the bar just so people couldn't see in.
+Two towels for 4 people and couldn't get anymore from the front desk. 
+To top it all off, about 2 hours in to the morning I started noticing a red spot on my right arm. By the afternoon both of my arms and my neck are now COVERED in a red itchy unbearable rash!!! No one else got it, and my arms were one of the only body parts not covered from my clothing.
+It was a nightmare. I've never been one to write a review, but this place is just a horrible, disgusting mess. 
+And don't dare leave any personal belongings!!! My sister in law left her wedding to...We were in town for only one night to attend a family memeber's funeral. Our expectations were not high, but I expected a little more than we got. Right when we walked in it smelled like an ashtray. The room just felt dirty. Then the covers on both beds were stained with, the lord only knows what. So we took those off. I was not going to let my kids near them. The sheets all had a smell to them, I'm sure they were not clean. Horrible pillows, thankfully we had our own pillows and a few small blankets. The curtains were broken and could not slide closed all the way. I had to find a way to make it hook over the bar just so people couldn't see in.Two towels for 4 people and couldn't get anymore from the front desk. To top it all off, about 2 hours in to the morning I started noticing a red spot on my right arm. By the afternoon both of my arms and my neck are now COVERED in a red itchy unbearable rash!!! No one else got it, and my arms were one of the only body parts not covered from my clothing.It was a nightmare. I've never been one to write a review, but this place is just a horrible, disgusting mess. And don't dare leave any personal belongings!!! My sister in law left her wedding to ring and knew EXACTLY where she set it down. But when they went back, the room had already been "cleaned" but nothing was found... She was devastated. Don't stay here, there is another motel 6 down the road in Waxahachie. You are WAY better off there.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Red Oak, responded to this reviewResponded April 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2015</t>
+  </si>
+  <si>
+    <t>We were in town for only one night to attend a family memeber's funeral. Our expectations were not high, but I expected a little more than we got. 
+Right when we walked in it smelled like an ashtray. The room just felt dirty. Then the covers on both beds were stained with, the lord only knows what. So we took those off. I was not going to let my kids near them. The sheets all had a smell to them, I'm sure they were not clean. Horrible pillows, thankfully we had our own pillows and a few small blankets. 
+The curtains were broken and could not slide closed all the way. I had to find a way to make it hook over the bar just so people couldn't see in.
+Two towels for 4 people and couldn't get anymore from the front desk. 
+To top it all off, about 2 hours in to the morning I started noticing a red spot on my right arm. By the afternoon both of my arms and my neck are now COVERED in a red itchy unbearable rash!!! No one else got it, and my arms were one of the only body parts not covered from my clothing.
+It was a nightmare. I've never been one to write a review, but this place is just a horrible, disgusting mess. 
+And don't dare leave any personal belongings!!! My sister in law left her wedding to...We were in town for only one night to attend a family memeber's funeral. Our expectations were not high, but I expected a little more than we got. Right when we walked in it smelled like an ashtray. The room just felt dirty. Then the covers on both beds were stained with, the lord only knows what. So we took those off. I was not going to let my kids near them. The sheets all had a smell to them, I'm sure they were not clean. Horrible pillows, thankfully we had our own pillows and a few small blankets. The curtains were broken and could not slide closed all the way. I had to find a way to make it hook over the bar just so people couldn't see in.Two towels for 4 people and couldn't get anymore from the front desk. To top it all off, about 2 hours in to the morning I started noticing a red spot on my right arm. By the afternoon both of my arms and my neck are now COVERED in a red itchy unbearable rash!!! No one else got it, and my arms were one of the only body parts not covered from my clothing.It was a nightmare. I've never been one to write a review, but this place is just a horrible, disgusting mess. And don't dare leave any personal belongings!!! My sister in law left her wedding to ring and knew EXACTLY where she set it down. But when they went back, the room had already been "cleaned" but nothing was found... She was devastated. Don't stay here, there is another motel 6 down the road in Waxahachie. You are WAY better off there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r206625882-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>206625882</t>
+  </si>
+  <si>
+    <t>05/22/2014</t>
+  </si>
+  <si>
+    <t>Dope heads paradise!</t>
+  </si>
+  <si>
+    <t>Found three meth needles in my room and when i showed them to the guy at the desk he just said house keepers will take care of them tomorrow when they clean your room. (Really tomorrow?!?) The pool is green and my shower would only work on HOT so i had to get burned just to take a shower.  There is alot a maintenance that needs to be done to this place to get it back to proper standards but other than that the people are nice. I also took videos and pictures of all of the problems i had so dont try to say im full of it. Im going to.try to fund somewhere to upload the pics.MoreShow less</t>
+  </si>
+  <si>
+    <t>Found three meth needles in my room and when i showed them to the guy at the desk he just said house keepers will take care of them tomorrow when they clean your room. (Really tomorrow?!?) The pool is green and my shower would only work on HOT so i had to get burned just to take a shower.  There is alot a maintenance that needs to be done to this place to get it back to proper standards but other than that the people are nice. I also took videos and pictures of all of the problems i had so dont try to say im full of it. Im going to.try to fund somewhere to upload the pics.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1029,986 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>140</v>
+      </c>
+      <c r="X14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>157</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_596.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_596.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jt J</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Americas Best V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r553581364-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>NightMagic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r485910318-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Galen H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r475648912-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>I had a wonderful stay. Very nice staff and the maintenance guy was amazing. Thanks so much for all the help. I wish all motel service was as good as yours.  A plus was having a restaurant right next door. Pizza and sandwiches. More</t>
   </si>
   <si>
+    <t>mblack33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r465685326-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>I booked online tried to double charge.went to room bed had stains on all linens.shower had hair,fort all over the floor,feces on floor,went and ask for clean sheets.they didn't  want to give.run from this price you want regret,health  board needs to pay them a visit.More</t>
   </si>
   <si>
+    <t>Billy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r418470747-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>bilbo b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r318808523-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -318,6 +339,9 @@
     <t>This place is the classic motel 6 that everyone has had horrid memories of in the past. The bedding felt like it hadn't been cleaned, (it appeared ok, it just felt wrong), the room smelled like the same room would be called a no smoking room or a smoking room , depending simply what the customer asked for. After about 3 hours there water started running through the bathroom ceiling and chunks started falling off. The evening guy was there by then, at least he gave me a different room. The wifi is pathetic, only one router can connect and that one will only work from the front office, when I brought my laptop to the office to show the day clerk , he took my laptop and started tapping out stuff. I don't think he really knew what he was doing, and then when the signal was so weak it wouldn't connect he had the audacity to still try the "it must be your computer" stuffanyway like the raven says "nevermore"More</t>
   </si>
   <si>
+    <t>Steve H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r310792604-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -345,6 +369,9 @@
     <t>As soon as I entered the room I was repulsed by the horrible smell, cigarette burns on the comforter, the towels and washcloths were stained, if I could give this place a 0 score, I would, I do not recommend. More</t>
   </si>
   <si>
+    <t>Joyce V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r293746786-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -363,6 +390,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Kristie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r289865002-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -384,6 +414,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Michael V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r288327856-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -402,6 +435,9 @@
     <t>We showed up at 8 or 9am on a Friday morning and Harry got us a room without marking it up. He had only double beds available but only charged the single room rate and no additional charge for being there earlier then normal check in. The initial room we got had no tv, so he promptly got us another. The TV in room two had static, but the ac wad cold, the water was hot and the bed comfy. It's next to a truck stop, try the fried pies there good. Also pizza joint in the truck stop, so it's convenient but no beer sold there. We would stay there again.More</t>
   </si>
   <si>
+    <t>josh c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r282287512-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -420,6 +456,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>SirDee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r266730213-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -447,6 +486,9 @@
     <t>This was simply the worst hotel experience in my life. I stood in the lobby for almost 3 hours trying to get a room thru my company approval, all because of the front desk personnel failure to inform them that his fax machine isn't working. Well sir why do you have a fax number on file. I finally get to my room &amp; bed #2 appeared to have someone else DNA on it. I repeat, do not stay here, you get what you pay for, so please go somewhere else or lay in someone else's DNA!More</t>
   </si>
   <si>
+    <t>TR1275</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r265917256-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -472,6 +514,9 @@
   </si>
   <si>
     <t>I chose the hotel because the website stated it was remodeled or renovated. I traveled with my toddler and sister to attend a funeral in Dallas. Unfortunately, I arrived late because of rush hour traffic and it rained badly. This was the worst hotel experience I ever had. The room checked-in was hot because the A/C was off.  The tub was dirty.  I tried calling front desk but the phone didn't work so I had to walk back to front desk to report my complaints. He gave me another room but bathtub was in the same condition as the first room and it was also hot. The vents on the A/C were broken. This time I was able to call front desk (phone worked) to complain. The front desk clerk came to the room to see my concerns.  He apologize for the inconvenience and said house keeping tries to clean the room quickly so guest will have an available room.  I showed him the dirty tub and he touched it and told me it was clean, despite a white thin layer of stuff was on his finger (looked like dust and soap scum).  I vented to him that I was tired, I had a long day driving over 4 hours to get there, and  I just wanted to take a hot shower and relax before I attend a funeral in the morning. He then gave me another room to stay...I chose the hotel because the website stated it was remodeled or renovated. I traveled with my toddler and sister to attend a funeral in Dallas. Unfortunately, I arrived late because of rush hour traffic and it rained badly. This was the worst hotel experience I ever had. The room checked-in was hot because the A/C was off.  The tub was dirty.  I tried calling front desk but the phone didn't work so I had to walk back to front desk to report my complaints. He gave me another room but bathtub was in the same condition as the first room and it was also hot. The vents on the A/C were broken. This time I was able to call front desk (phone worked) to complain. The front desk clerk came to the room to see my concerns.  He apologize for the inconvenience and said house keeping tries to clean the room quickly so guest will have an available room.  I showed him the dirty tub and he touched it and told me it was clean, despite a white thin layer of stuff was on his finger (looked like dust and soap scum).  I vented to him that I was tired, I had a long day driving over 4 hours to get there, and  I just wanted to take a hot shower and relax before I attend a funeral in the morning. He then gave me another room to stay in and the tub was almost in the same condition.  At this point I was too tired to complain so I decided to keep the room.  I went to the gas station next door and bought Ajax and Wet Ones to clean the bathroom.  The tub looked better but still had a dingy look but I felt at ease because I knew it was actually clean.  This hotel is NOT what I considered renovated, all they did is bought cheap bedding and paint the walls. The bathtubs are old and dingy. I also saw cracks on the floor tiles.  I've stayed at a Motel 6 before that was pleasant enough to consider booking a room but surely not this one ever again!More</t>
+  </si>
+  <si>
+    <t>Tmdavis83</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r264648656-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
@@ -511,6 +556,9 @@
 To top it all off, about 2 hours in to the morning I started noticing a red spot on my right arm. By the afternoon both of my arms and my neck are now COVERED in a red itchy unbearable rash!!! No one else got it, and my arms were one of the only body parts not covered from my clothing.
 It was a nightmare. I've never been one to write a review, but this place is just a horrible, disgusting mess. 
 And don't dare leave any personal belongings!!! My sister in law left her wedding to...We were in town for only one night to attend a family memeber's funeral. Our expectations were not high, but I expected a little more than we got. Right when we walked in it smelled like an ashtray. The room just felt dirty. Then the covers on both beds were stained with, the lord only knows what. So we took those off. I was not going to let my kids near them. The sheets all had a smell to them, I'm sure they were not clean. Horrible pillows, thankfully we had our own pillows and a few small blankets. The curtains were broken and could not slide closed all the way. I had to find a way to make it hook over the bar just so people couldn't see in.Two towels for 4 people and couldn't get anymore from the front desk. To top it all off, about 2 hours in to the morning I started noticing a red spot on my right arm. By the afternoon both of my arms and my neck are now COVERED in a red itchy unbearable rash!!! No one else got it, and my arms were one of the only body parts not covered from my clothing.It was a nightmare. I've never been one to write a review, but this place is just a horrible, disgusting mess. And don't dare leave any personal belongings!!! My sister in law left her wedding to ring and knew EXACTLY where she set it down. But when they went back, the room had already been "cleaned" but nothing was found... She was devastated. Don't stay here, there is another motel 6 down the road in Waxahachie. You are WAY better off there.More</t>
+  </si>
+  <si>
+    <t>tweekerhater</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r206625882-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
@@ -1033,43 +1081,47 @@
       <c r="A2" t="n">
         <v>27354</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169489</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1083,50 +1135,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27354</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169490</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1146,50 +1202,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27354</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169491</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1203,50 +1263,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27354</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>101177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1258,56 +1322,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27354</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169492</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1319,56 +1387,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27354</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>15136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1382,50 +1454,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>27354</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169493</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -1443,56 +1519,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>27354</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1504,56 +1584,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>27354</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>83444</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1571,50 +1655,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>27354</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>19435</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1634,50 +1722,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>27354</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>2501</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1691,50 +1783,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>27354</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>100752</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -1754,50 +1850,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>27354</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169494</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1809,56 +1909,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>27354</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>169495</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -1876,56 +1980,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="X15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>27354</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169496</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -1937,47 +2045,51 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>27354</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>169497</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -2006,7 +2118,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_596.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_596.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
   <si>
     <t>STR#</t>
   </si>
@@ -147,42 +147,96 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Jt J</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r589092659-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>56528</t>
+  </si>
+  <si>
+    <t>106461</t>
+  </si>
+  <si>
+    <t>589092659</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>The room was clean and comfortable for my family. My family and I were able to enjoy our stay peacefully. The staff were friendly, accommodating, and helpful. It is also a really convenient area. I would definitely recommend this place to others with their great value and service!</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r577466543-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>577466543</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Avoid Staying Here</t>
+  </si>
+  <si>
+    <t>1. At check in...guy stood there outside finishing his cigarette before coming to check me in.2. Smoke alarm went about 15 minutes later because someone had a BBQ grill just outside their room.3. Upon entering our room the TV was on and it looked like someone was just in there4. Nasty stuff on the walls, furniture was damaged and looked fresh out of a yard sale, no desk chair, one of the dresser drawers were missing5. NO SHAMPOO or CONDITIONER just one bar of cheap soap6. Dingy old pillows7. Rusted steps and railings8. Something nasty on the floor in the bathroom between the shower and toilet9. The bathroom room door was literally falling apart and would not shut fully10. THE WORST HOTEL I EVER STAYED INMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Dallas - Red Oak, responded to this reviewResponded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2018</t>
+  </si>
+  <si>
+    <t>1. At check in...guy stood there outside finishing his cigarette before coming to check me in.2. Smoke alarm went about 15 minutes later because someone had a BBQ grill just outside their room.3. Upon entering our room the TV was on and it looked like someone was just in there4. Nasty stuff on the walls, furniture was damaged and looked fresh out of a yard sale, no desk chair, one of the dresser drawers were missing5. NO SHAMPOO or CONDITIONER just one bar of cheap soap6. Dingy old pillows7. Rusted steps and railings8. Something nasty on the floor in the bathroom between the shower and toilet9. The bathroom room door was literally falling apart and would not shut fully10. THE WORST HOTEL I EVER STAYED INMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r576036734-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>576036734</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Clean and quiet</t>
+  </si>
+  <si>
+    <t>My experience here has been very good. The staff is great the handle my needs quick and efficient with a smile. The rooms are clean and bug-free the restaurants are close by as well as the grocery is Great Value money-wise. Very comforting and relaxing property is clean and quiet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r576036437-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
-    <t>56528</t>
-  </si>
-  <si>
-    <t>106461</t>
-  </si>
-  <si>
     <t>576036437</t>
   </si>
   <si>
-    <t>04/27/2018</t>
-  </si>
-  <si>
     <t>Good service and location</t>
   </si>
   <si>
     <t>The rooms were clean. Restaurants are nearby within 1 mile including grocery stores. For the money it was a great value. Usually hotels are sold out around the Dallas area to early for me at times considering I don't get done working and know where I'm staying till late afternoon. Oh, there are no pest problems!</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Americas Best V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r553581364-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -198,15 +252,9 @@
     <t>Had a great stay. Affordable rate. excellent staff. I do recommend. Location is very visible from highway I35. Pizza Inn, gas staion, food, beer shop in walking distance. I will stay here again if travelling this area.</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>NightMagic</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r485910318-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -225,10 +273,49 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Galen H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r481479291-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>481479291</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Nice staff</t>
+  </si>
+  <si>
+    <t>Great Customer service. The staff was really nice. Especially  the housekeeper.  He made me feel welcomed.  I stayed at this Motel 6 for a week, while having my home renovated.  I would recommend this location.I have really bad OCD and allergies.  Everything was clean and I didn't have an attack , so that's good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r475950031-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>475950031</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Poor maintenance</t>
+  </si>
+  <si>
+    <t>Upon arrival to my room there was a very musty, horrible smoky odor coming from the room. I was immediately transferred to another room.."we should've just simply left" however I was very exhausted and it was very late at night. The second room had more of an old scent so the front destination clerk sprayed the room which kind of resolved the problem!.  On the  second night in question I and my boyfriend slept in and realized that our bodies were itching with bites, we looked at the bed/sheets and noticed red bugs (maybe bed bugs) crawling on the bed sheets . I immediately took pics and called the front desk clerk and showed it to him. He immediately changed all of the sheets but never mentioned a word of apology or even acknowledge what he himself saw. I reported the incident  and checked into a more cleaner comfortable hotel for my final night.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Motel 6 Dallas - Red Oak, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Upon arrival to my room there was a very musty, horrible smoky odor coming from the room. I was immediately transferred to another room.."we should've just simply left" however I was very exhausted and it was very late at night. The second room had more of an old scent so the front destination clerk sprayed the room which kind of resolved the problem!.  On the  second night in question I and my boyfriend slept in and realized that our bodies were itching with bites, we looked at the bed/sheets and noticed red bugs (maybe bed bugs) crawling on the bed sheets . I immediately took pics and called the front desk clerk and showed it to him. He immediately changed all of the sheets but never mentioned a word of apology or even acknowledge what he himself saw. I reported the incident  and checked into a more cleaner comfortable hotel for my final night.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r475648912-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
@@ -246,21 +333,12 @@
     <t>I had a wonderful stay. Very nice staff and the maintenance guy was amazing. Thanks so much for all the help. I wish all motel service was as good as yours.  A plus was having a restaurant right next door. Pizza and sandwiches. MoreShow less</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team at Motel 6 Dallas - Red Oak, responded to this reviewResponded April 19, 2017</t>
   </si>
   <si>
-    <t>Responded April 19, 2017</t>
-  </si>
-  <si>
     <t>I had a wonderful stay. Very nice staff and the maintenance guy was amazing. Thanks so much for all the help. I wish all motel service was as good as yours.  A plus was having a restaurant right next door. Pizza and sandwiches. More</t>
   </si>
   <si>
-    <t>mblack33</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r465685326-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -288,9 +366,6 @@
     <t>I booked online tried to double charge.went to room bed had stains on all linens.shower had hair,fort all over the floor,feces on floor,went and ask for clean sheets.they didn't  want to give.run from this price you want regret,health  board needs to pay them a visit.More</t>
   </si>
   <si>
-    <t>Billy B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r418470747-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -309,7 +384,50 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>bilbo b</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r365450639-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>365450639</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Smoky and dirty, but cheap</t>
+  </si>
+  <si>
+    <t>I needed a place to crash for a few hours after a long day of travel. This hotel had a room with two double beds: one for me and one for my friend. They allowed me to check in after midnight (I'd made the reservation in advance and notified them that it would be a VERY late check-in). The room had a little refrigerator but no coffee pot. No amenities. No frills of any kind. The room smelled strongly of smoke and dirt. The bathroom was gross (it looked like the last guest had smeared poop on the wall...) and the towels were dirty/dusty. There were cigarette ashes on the floors even though it was a "non-smoking room." The carpet seemed sticky and there were holes in the blankets on the bed. The curtain in the window was kind of falling off. There was a startling noise each time the air conditioner kicked on. I heard a bunch of car honking at 1:30 a.m. There were inexplicable beeping sounds coming from somewhere unidentified all night long, and my sleep was disturbed. But the roof held and the bed was okay, and it was very cheap. I wouldn't stay there again, but when you're desperate, this will do. On the plus side, the shower was great except when the temperature kept changing.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I needed a place to crash for a few hours after a long day of travel. This hotel had a room with two double beds: one for me and one for my friend. They allowed me to check in after midnight (I'd made the reservation in advance and notified them that it would be a VERY late check-in). The room had a little refrigerator but no coffee pot. No amenities. No frills of any kind. The room smelled strongly of smoke and dirt. The bathroom was gross (it looked like the last guest had smeared poop on the wall...) and the towels were dirty/dusty. There were cigarette ashes on the floors even though it was a "non-smoking room." The carpet seemed sticky and there were holes in the blankets on the bed. The curtain in the window was kind of falling off. There was a startling noise each time the air conditioner kicked on. I heard a bunch of car honking at 1:30 a.m. There were inexplicable beeping sounds coming from somewhere unidentified all night long, and my sleep was disturbed. But the roof held and the bed was okay, and it was very cheap. I wouldn't stay there again, but when you're desperate, this will do. On the plus side, the shower was great except when the temperature kept changing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r351679420-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>351679420</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Ignore any review that says anything positive</t>
+  </si>
+  <si>
+    <t>I'm a realist. I don't stay in a cheap motel expecting the Ritz Carlton. I've stayed in many a Motel 6; my expectations are a clean room with a comfortable bed, nothing more. This place fell way short of the mark on both accounts. I should have turned around and left as soon as I walked in the office and got a whiff of what was to come, but it was late and  we were tired, so I got a room.
+The moment I walked into the room, I knew it was a mistake. It stunk of mildew. The bedspreads were stained and had cigarette holes burned in them. The beds were the most uncomfortable I've ever experienced in a motel, and I've stayed in some doozies. I like a firm mattress, but these were beyond firm...they were just plain hard. 
+My total cost for this room was 63 dollars and some change. We'd have been better off sleeping in the car. In my experience, Motel 6 is usually a safe bet for a no frills decent hotel room. I assume they're all privately owned but are required to live up to a certain standard. This place has apparently fallen through the cracks, I can't believe corporate would allow them to continue to operate under the Motel 6 banner if they knew what a run down dump it is. At $63 a night, this place is grossly overpriced...I wouldn't stay...I'm a realist. I don't stay in a cheap motel expecting the Ritz Carlton. I've stayed in many a Motel 6; my expectations are a clean room with a comfortable bed, nothing more. This place fell way short of the mark on both accounts. I should have turned around and left as soon as I walked in the office and got a whiff of what was to come, but it was late and  we were tired, so I got a room.The moment I walked into the room, I knew it was a mistake. It stunk of mildew. The bedspreads were stained and had cigarette holes burned in them. The beds were the most uncomfortable I've ever experienced in a motel, and I've stayed in some doozies. I like a firm mattress, but these were beyond firm...they were just plain hard. My total cost for this room was 63 dollars and some change. We'd have been better off sleeping in the car. In my experience, Motel 6 is usually a safe bet for a no frills decent hotel room. I assume they're all privately owned but are required to live up to a certain standard. This place has apparently fallen through the cracks, I can't believe corporate would allow them to continue to operate under the Motel 6 banner if they knew what a run down dump it is. At $63 a night, this place is grossly overpriced...I wouldn't stay there again if it was free.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>I'm a realist. I don't stay in a cheap motel expecting the Ritz Carlton. I've stayed in many a Motel 6; my expectations are a clean room with a comfortable bed, nothing more. This place fell way short of the mark on both accounts. I should have turned around and left as soon as I walked in the office and got a whiff of what was to come, but it was late and  we were tired, so I got a room.
+The moment I walked into the room, I knew it was a mistake. It stunk of mildew. The bedspreads were stained and had cigarette holes burned in them. The beds were the most uncomfortable I've ever experienced in a motel, and I've stayed in some doozies. I like a firm mattress, but these were beyond firm...they were just plain hard. 
+My total cost for this room was 63 dollars and some change. We'd have been better off sleeping in the car. In my experience, Motel 6 is usually a safe bet for a no frills decent hotel room. I assume they're all privately owned but are required to live up to a certain standard. This place has apparently fallen through the cracks, I can't believe corporate would allow them to continue to operate under the Motel 6 banner if they knew what a run down dump it is. At $63 a night, this place is grossly overpriced...I wouldn't stay...I'm a realist. I don't stay in a cheap motel expecting the Ritz Carlton. I've stayed in many a Motel 6; my expectations are a clean room with a comfortable bed, nothing more. This place fell way short of the mark on both accounts. I should have turned around and left as soon as I walked in the office and got a whiff of what was to come, but it was late and  we were tired, so I got a room.The moment I walked into the room, I knew it was a mistake. It stunk of mildew. The bedspreads were stained and had cigarette holes burned in them. The beds were the most uncomfortable I've ever experienced in a motel, and I've stayed in some doozies. I like a firm mattress, but these were beyond firm...they were just plain hard. My total cost for this room was 63 dollars and some change. We'd have been better off sleeping in the car. In my experience, Motel 6 is usually a safe bet for a no frills decent hotel room. I assume they're all privately owned but are required to live up to a certain standard. This place has apparently fallen through the cracks, I can't believe corporate would allow them to continue to operate under the Motel 6 banner if they knew what a run down dump it is. At $63 a night, this place is grossly overpriced...I wouldn't stay there again if it was free.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r318808523-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
@@ -339,9 +457,6 @@
     <t>This place is the classic motel 6 that everyone has had horrid memories of in the past. The bedding felt like it hadn't been cleaned, (it appeared ok, it just felt wrong), the room smelled like the same room would be called a no smoking room or a smoking room , depending simply what the customer asked for. After about 3 hours there water started running through the bathroom ceiling and chunks started falling off. The evening guy was there by then, at least he gave me a different room. The wifi is pathetic, only one router can connect and that one will only work from the front office, when I brought my laptop to the office to show the day clerk , he took my laptop and started tapping out stuff. I don't think he really knew what he was doing, and then when the signal was so weak it wouldn't connect he had the audacity to still try the "it must be your computer" stuffanyway like the raven says "nevermore"More</t>
   </si>
   <si>
-    <t>Steve H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r310792604-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -369,9 +484,6 @@
     <t>As soon as I entered the room I was repulsed by the horrible smell, cigarette burns on the comforter, the towels and washcloths were stained, if I could give this place a 0 score, I would, I do not recommend. More</t>
   </si>
   <si>
-    <t>Joyce V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r293746786-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -390,7 +502,34 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>Kristie A</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r292956429-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>292956429</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Another great stay.</t>
+  </si>
+  <si>
+    <t>We live this place.Harry is always great.The staff is awesome and give a family oriented feeling everytime.We will keep coming back  I recommend that you guys stop on by when you come through the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r289898866-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>289898866</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>Great rates and great rooms</t>
+  </si>
+  <si>
+    <t>Rooms are clean, smell great, motel staff were constantly smiling. Easy access to I-35, within walking distance to places to eat and stores. This place has the best rates and are surprisingly awesome.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r289865002-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
@@ -399,9 +538,6 @@
     <t>289865002</t>
   </si>
   <si>
-    <t>07/17/2015</t>
-  </si>
-  <si>
     <t>Great rates, great motel</t>
   </si>
   <si>
@@ -411,12 +547,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Michael V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r288327856-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -435,9 +565,6 @@
     <t>We showed up at 8 or 9am on a Friday morning and Harry got us a room without marking it up. He had only double beds available but only charged the single room rate and no additional charge for being there earlier then normal check in. The initial room we got had no tv, so he promptly got us another. The TV in room two had static, but the ac wad cold, the water was hot and the bed comfy. It's next to a truck stop, try the fried pies there good. Also pizza joint in the truck stop, so it's convenient but no beer sold there. We would stay there again.More</t>
   </si>
   <si>
-    <t>josh c</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r282287512-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -456,7 +583,43 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>SirDee</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r279118995-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>279118995</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>Amazing room, even better price!</t>
+  </si>
+  <si>
+    <t>This place was great, the room was clean and smelled great when we walked in. The beds were comfortable. The TV channels look HD, and the wifi was easy to connect to. And the gentleman at the front desk was more than helpful to help me find directions to restaurants in the area. Will stay again when I go back to Red Oak.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r269358943-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>269358943</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t>This place is a dump!!!!</t>
+  </si>
+  <si>
+    <t>I have been staying here for a couple of days due to some personal reasons. I checked in on Wednesday, and after making my reservations online, I was hoping for a quick and easy check-in. Wrong, wrong I get into the office and give the associate my confirmation # and he has no record of it. I call the corporate office number and that was the only pleasant thing I can say about the whole ordeal. The associate on the phone was a pleasure and a joy to deal with. The Hotel associate that was a whole different experience. After about 30 minutes he finally got me a room if you can call it that! I enjoy Motel 6 hotels comfortable room for a reasonable price. This one here I am afraid to say it should be condemned!MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Red Oak, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>I have been staying here for a couple of days due to some personal reasons. I checked in on Wednesday, and after making my reservations online, I was hoping for a quick and easy check-in. Wrong, wrong I get into the office and give the associate my confirmation # and he has no record of it. I call the corporate office number and that was the only pleasant thing I can say about the whole ordeal. The associate on the phone was a pleasure and a joy to deal with. The Hotel associate that was a whole different experience. After about 30 minutes he finally got me a room if you can call it that! I enjoy Motel 6 hotels comfortable room for a reasonable price. This one here I am afraid to say it should be condemned!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r266730213-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
@@ -486,9 +649,6 @@
     <t>This was simply the worst hotel experience in my life. I stood in the lobby for almost 3 hours trying to get a room thru my company approval, all because of the front desk personnel failure to inform them that his fax machine isn't working. Well sir why do you have a fax number on file. I finally get to my room &amp; bed #2 appeared to have someone else DNA on it. I repeat, do not stay here, you get what you pay for, so please go somewhere else or lay in someone else's DNA!More</t>
   </si>
   <si>
-    <t>TR1275</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r265917256-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
   </si>
   <si>
@@ -514,9 +674,6 @@
   </si>
   <si>
     <t>I chose the hotel because the website stated it was remodeled or renovated. I traveled with my toddler and sister to attend a funeral in Dallas. Unfortunately, I arrived late because of rush hour traffic and it rained badly. This was the worst hotel experience I ever had. The room checked-in was hot because the A/C was off.  The tub was dirty.  I tried calling front desk but the phone didn't work so I had to walk back to front desk to report my complaints. He gave me another room but bathtub was in the same condition as the first room and it was also hot. The vents on the A/C were broken. This time I was able to call front desk (phone worked) to complain. The front desk clerk came to the room to see my concerns.  He apologize for the inconvenience and said house keeping tries to clean the room quickly so guest will have an available room.  I showed him the dirty tub and he touched it and told me it was clean, despite a white thin layer of stuff was on his finger (looked like dust and soap scum).  I vented to him that I was tired, I had a long day driving over 4 hours to get there, and  I just wanted to take a hot shower and relax before I attend a funeral in the morning. He then gave me another room to stay...I chose the hotel because the website stated it was remodeled or renovated. I traveled with my toddler and sister to attend a funeral in Dallas. Unfortunately, I arrived late because of rush hour traffic and it rained badly. This was the worst hotel experience I ever had. The room checked-in was hot because the A/C was off.  The tub was dirty.  I tried calling front desk but the phone didn't work so I had to walk back to front desk to report my complaints. He gave me another room but bathtub was in the same condition as the first room and it was also hot. The vents on the A/C were broken. This time I was able to call front desk (phone worked) to complain. The front desk clerk came to the room to see my concerns.  He apologize for the inconvenience and said house keeping tries to clean the room quickly so guest will have an available room.  I showed him the dirty tub and he touched it and told me it was clean, despite a white thin layer of stuff was on his finger (looked like dust and soap scum).  I vented to him that I was tired, I had a long day driving over 4 hours to get there, and  I just wanted to take a hot shower and relax before I attend a funeral in the morning. He then gave me another room to stay in and the tub was almost in the same condition.  At this point I was too tired to complain so I decided to keep the room.  I went to the gas station next door and bought Ajax and Wet Ones to clean the bathroom.  The tub looked better but still had a dingy look but I felt at ease because I knew it was actually clean.  This hotel is NOT what I considered renovated, all they did is bought cheap bedding and paint the walls. The bathtubs are old and dingy. I also saw cracks on the floor tiles.  I've stayed at a Motel 6 before that was pleasant enough to consider booking a room but surely not this one ever again!More</t>
-  </si>
-  <si>
-    <t>Tmdavis83</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r264648656-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
@@ -540,9 +697,6 @@
 And don't dare leave any personal belongings!!! My sister in law left her wedding to...We were in town for only one night to attend a family memeber's funeral. Our expectations were not high, but I expected a little more than we got. Right when we walked in it smelled like an ashtray. The room just felt dirty. Then the covers on both beds were stained with, the lord only knows what. So we took those off. I was not going to let my kids near them. The sheets all had a smell to them, I'm sure they were not clean. Horrible pillows, thankfully we had our own pillows and a few small blankets. The curtains were broken and could not slide closed all the way. I had to find a way to make it hook over the bar just so people couldn't see in.Two towels for 4 people and couldn't get anymore from the front desk. To top it all off, about 2 hours in to the morning I started noticing a red spot on my right arm. By the afternoon both of my arms and my neck are now COVERED in a red itchy unbearable rash!!! No one else got it, and my arms were one of the only body parts not covered from my clothing.It was a nightmare. I've never been one to write a review, but this place is just a horrible, disgusting mess. And don't dare leave any personal belongings!!! My sister in law left her wedding to ring and knew EXACTLY where she set it down. But when they went back, the room had already been "cleaned" but nothing was found... She was devastated. Don't stay here, there is another motel 6 down the road in Waxahachie. You are WAY better off there.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team member at Motel 6 Dallas - Red Oak, responded to this reviewResponded April 16, 2015</t>
   </si>
   <si>
@@ -558,7 +712,37 @@
 And don't dare leave any personal belongings!!! My sister in law left her wedding to...We were in town for only one night to attend a family memeber's funeral. Our expectations were not high, but I expected a little more than we got. Right when we walked in it smelled like an ashtray. The room just felt dirty. Then the covers on both beds were stained with, the lord only knows what. So we took those off. I was not going to let my kids near them. The sheets all had a smell to them, I'm sure they were not clean. Horrible pillows, thankfully we had our own pillows and a few small blankets. The curtains were broken and could not slide closed all the way. I had to find a way to make it hook over the bar just so people couldn't see in.Two towels for 4 people and couldn't get anymore from the front desk. To top it all off, about 2 hours in to the morning I started noticing a red spot on my right arm. By the afternoon both of my arms and my neck are now COVERED in a red itchy unbearable rash!!! No one else got it, and my arms were one of the only body parts not covered from my clothing.It was a nightmare. I've never been one to write a review, but this place is just a horrible, disgusting mess. And don't dare leave any personal belongings!!! My sister in law left her wedding to ring and knew EXACTLY where she set it down. But when they went back, the room had already been "cleaned" but nothing was found... She was devastated. Don't stay here, there is another motel 6 down the road in Waxahachie. You are WAY better off there.More</t>
   </si>
   <si>
-    <t>tweekerhater</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r235641427-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>235641427</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>poor everything</t>
+  </si>
+  <si>
+    <t>Let me tell you of my experience, when I went to check in I was giving a room that was smoked in I needed a nonsmoking due to health problems. I was told to go buy air freshener because that was their last room to use for a pet. The next night when getting back to the room we didn't receive any housekeeping was told because we has a dog in the room the dog was never in the room unless we were there. we went to take a shower there wasn't any clean towels, went down to front desk and they couldn't find me any towels. I never received housekeeping after that. went out and bought towels so we could take a shower. The towels that were there were rags.MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me tell you of my experience, when I went to check in I was giving a room that was smoked in I needed a nonsmoking due to health problems. I was told to go buy air freshener because that was their last room to use for a pet. The next night when getting back to the room we didn't receive any housekeeping was told because we has a dog in the room the dog was never in the room unless we were there. we went to take a shower there wasn't any clean towels, went down to front desk and they couldn't find me any towels. I never received housekeeping after that. went out and bought towels so we could take a shower. The towels that were there were rags.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r209216154-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
+  </si>
+  <si>
+    <t>209216154</t>
+  </si>
+  <si>
+    <t>06/06/2014</t>
+  </si>
+  <si>
+    <t>Terrible!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer service was horrible! My room had no microwave no wifi, the tv didn't work and the pool was out of service. On top of that my room dirty, there was old food still in the fridge, bugs on the floor... They said they where pet friendly but then I got here they kept slapping on the fees everyday I was here and the guy behind the desk kept telling me it could only be paid in cash?!?! I will never stay here again! Worst experience at a hotel!!!! </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56528-d106461-r206625882-Motel_6_Dallas_Red_Oak-Red_Oak_Texas.html</t>
@@ -1081,175 +1265,171 @@
       <c r="A2" t="n">
         <v>27354</v>
       </c>
-      <c r="B2" t="n">
-        <v>169489</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27354</v>
       </c>
-      <c r="B3" t="n">
-        <v>169490</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27354</v>
       </c>
-      <c r="B4" t="n">
-        <v>169491</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1263,54 +1443,50 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27354</v>
       </c>
-      <c r="B5" t="n">
-        <v>101177</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
         <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1321,126 +1497,116 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27354</v>
       </c>
-      <c r="B6" t="n">
-        <v>169492</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>87</v>
-      </c>
-      <c r="X6" t="s">
-        <v>88</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27354</v>
       </c>
-      <c r="B7" t="n">
-        <v>15136</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1454,125 +1620,107 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>27354</v>
       </c>
-      <c r="B8" t="n">
-        <v>169493</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>104</v>
-      </c>
-      <c r="X8" t="s">
-        <v>105</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>27354</v>
       </c>
-      <c r="B9" t="n">
-        <v>7500</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1584,192 +1732,178 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>27354</v>
       </c>
-      <c r="B10" t="n">
-        <v>83444</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" t="s">
+        <v>98</v>
+      </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>27354</v>
       </c>
-      <c r="B11" t="n">
-        <v>19435</v>
-      </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>131</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>113</v>
+      </c>
+      <c r="X11" t="s">
+        <v>114</v>
+      </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>27354</v>
       </c>
-      <c r="B12" t="n">
-        <v>2501</v>
-      </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1783,66 +1917,62 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>27354</v>
       </c>
-      <c r="B13" t="n">
-        <v>100752</v>
-      </c>
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="n">
         <v>5</v>
       </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1850,190 +1980,180 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>27354</v>
       </c>
-      <c r="B14" t="n">
-        <v>169494</v>
-      </c>
-      <c r="C14" t="s">
-        <v>146</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="R14" t="n">
+        <v>1</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>153</v>
-      </c>
-      <c r="X14" t="s">
-        <v>154</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>27354</v>
       </c>
-      <c r="B15" t="n">
-        <v>169495</v>
-      </c>
-      <c r="C15" t="s">
-        <v>156</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="X15" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>27354</v>
       </c>
-      <c r="B16" t="n">
-        <v>169496</v>
-      </c>
-      <c r="C16" t="s">
-        <v>166</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2045,72 +2165,66 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="X16" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>27354</v>
       </c>
-      <c r="B17" t="n">
-        <v>169497</v>
-      </c>
-      <c r="C17" t="s">
-        <v>176</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2118,7 +2232,802 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" t="s">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
         <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>193</v>
+      </c>
+      <c r="J24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>174</v>
+      </c>
+      <c r="O24" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>197</v>
+      </c>
+      <c r="X24" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>205</v>
+      </c>
+      <c r="O25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>206</v>
+      </c>
+      <c r="X25" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>214</v>
+      </c>
+      <c r="O26" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>215</v>
+      </c>
+      <c r="X26" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J27" t="s">
+        <v>220</v>
+      </c>
+      <c r="K27" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" t="s">
+        <v>222</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>205</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>223</v>
+      </c>
+      <c r="X27" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>227</v>
+      </c>
+      <c r="J28" t="s">
+        <v>228</v>
+      </c>
+      <c r="K28" t="s">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>214</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27354</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" t="s">
+        <v>240</v>
+      </c>
+      <c r="L30" t="s">
+        <v>241</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
